--- a/DOC/开发计划/DMS开发计划-2.12.xlsx
+++ b/DOC/开发计划/DMS开发计划-2.12.xlsx
@@ -265,10 +265,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>提示认证成功，用户名，密码及一些基本注意事项等提示信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>七牛图片上传后接口开发及测试</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -740,6 +736,10 @@
   </si>
   <si>
     <t>微信相关功能测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示认证成功，用户名，密码及一些基本注意事项等提示信息</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1029,6 +1029,27 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1037,27 +1058,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1395,8 +1395,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:XDT35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1444,7 +1444,7 @@
         <v>56</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E2" s="9">
         <v>43508</v>
@@ -1462,7 +1462,7 @@
         <v>56</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E3" s="9">
         <v>43508</v>
@@ -1480,7 +1480,7 @@
         <v>58</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E4" s="9">
         <v>43508</v>
@@ -1498,7 +1498,7 @@
         <v>60</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" s="9">
         <v>43508</v>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E6" s="9">
         <v>43509</v>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E7" s="9">
         <v>43510</v>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E8" s="9">
         <v>43510</v>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E9" s="9">
         <v>43522</v>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E10" s="9">
         <v>43514</v>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E11" s="9">
         <v>43514</v>
@@ -1609,10 +1609,10 @@
         <v>72</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>73</v>
+        <v>190</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" s="9">
         <v>43509</v>
@@ -1624,13 +1624,13 @@
     <row r="13" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A13" s="36"/>
       <c r="B13" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E13" s="9">
         <v>43511</v>
@@ -1642,11 +1642,11 @@
     <row r="14" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A14" s="36"/>
       <c r="B14" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E14" s="9">
         <v>43514</v>
@@ -1658,11 +1658,11 @@
     <row r="15" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A15" s="36"/>
       <c r="B15" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E15" s="9">
         <v>43511</v>
@@ -1674,11 +1674,11 @@
     <row r="16" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A16" s="36"/>
       <c r="B16" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E16" s="9">
         <v>43511</v>
@@ -1690,11 +1690,11 @@
     <row r="17" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A17" s="36"/>
       <c r="B17" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="9">
         <v>43511</v>
@@ -1706,11 +1706,11 @@
     <row r="18" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A18" s="36"/>
       <c r="B18" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E18" s="9">
         <v>43511</v>
@@ -1722,11 +1722,11 @@
     <row r="19" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A19" s="36"/>
       <c r="B19" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E19" s="9">
         <v>43511</v>
@@ -1738,11 +1738,11 @@
     <row r="20" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A20" s="36"/>
       <c r="B20" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E20" s="9">
         <v>43511</v>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E21" s="9">
         <v>43515</v>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E22" s="9">
         <v>43515</v>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E23" s="9">
         <v>43516</v>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E24" s="9">
         <v>43516</v>
@@ -1820,11 +1820,11 @@
     <row r="25" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A25" s="36"/>
       <c r="B25" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E25" s="9">
         <v>43515</v>
@@ -1836,11 +1836,11 @@
     <row r="26" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A26" s="36"/>
       <c r="B26" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E26" s="9">
         <v>43516</v>
@@ -1852,13 +1852,13 @@
     <row r="27" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A27" s="36"/>
       <c r="B27" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E27" s="9">
         <v>43524</v>
@@ -1870,13 +1870,13 @@
     <row r="28" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A28" s="36"/>
       <c r="B28" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E28" s="9">
         <v>43524</v>
@@ -1888,11 +1888,11 @@
     <row r="29" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A29" s="36"/>
       <c r="B29" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E29" s="9">
         <v>43509</v>
@@ -1904,11 +1904,11 @@
     <row r="30" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A30" s="36"/>
       <c r="B30" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E30" s="9">
         <v>43516</v>
@@ -1919,16 +1919,16 @@
     </row>
     <row r="31" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A31" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="C31" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>83</v>
-      </c>
       <c r="D31" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E31" s="9">
         <v>43508</v>
@@ -1940,13 +1940,13 @@
     <row r="32" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A32" s="36"/>
       <c r="B32" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>85</v>
-      </c>
       <c r="D32" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E32" s="9">
         <v>43508</v>
@@ -1958,13 +1958,13 @@
     <row r="33" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A33" s="36"/>
       <c r="B33" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>87</v>
-      </c>
       <c r="D33" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E33" s="9">
         <v>43508</v>
@@ -1976,11 +1976,11 @@
     <row r="34" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A34" s="36"/>
       <c r="B34" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E34" s="9">
         <v>43508</v>
@@ -1992,11 +1992,11 @@
     <row r="35" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A35" s="37"/>
       <c r="B35" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E35" s="9">
         <v>43524</v>
@@ -2043,63 +2043,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" customHeight="1">
-      <c r="A1" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
+      <c r="A1" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="F2" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="J2" s="13" t="s">
+    </row>
+    <row r="3" spans="1:10" ht="37.9" customHeight="1">
+      <c r="A3" s="42" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="37.9" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="B3" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="D3" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="E3" s="15">
         <v>2</v>
@@ -2119,15 +2119,15 @@
       <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10" ht="29.45" customHeight="1">
-      <c r="A4" s="44"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>111</v>
-      </c>
       <c r="D4" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E4" s="15">
         <v>1</v>
@@ -2147,15 +2147,15 @@
       <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10" ht="40.9" customHeight="1">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44" t="s">
+      <c r="A5" s="42"/>
+      <c r="B5" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="D5" s="13" t="s">
         <v>113</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="E5" s="15">
         <v>1</v>
@@ -2175,13 +2175,13 @@
       <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10" ht="34.15" customHeight="1">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E6" s="15">
         <v>1</v>
@@ -2201,13 +2201,13 @@
       <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" ht="49.15" customHeight="1">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E7" s="15">
         <v>2</v>
@@ -2227,15 +2227,15 @@
       <c r="J7" s="19"/>
     </row>
     <row r="8" spans="1:10" ht="35.450000000000003" customHeight="1">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44" t="s">
+      <c r="A8" s="42"/>
+      <c r="B8" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="D8" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E8" s="15">
         <v>1</v>
@@ -2254,13 +2254,13 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E9" s="15">
         <v>2</v>
@@ -2276,15 +2276,15 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="26.45" customHeight="1">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44" t="s">
+      <c r="A10" s="42"/>
+      <c r="B10" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>121</v>
-      </c>
       <c r="D10" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E10" s="13">
         <v>2</v>
@@ -2298,13 +2298,13 @@
       <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:10" ht="26.45" customHeight="1">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E11" s="13">
         <v>1</v>
@@ -2318,15 +2318,15 @@
       <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:10" ht="26.45" customHeight="1">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44" t="s">
+      <c r="A12" s="42"/>
+      <c r="B12" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>124</v>
-      </c>
       <c r="D12" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E12" s="15">
         <v>2</v>
@@ -2340,13 +2340,13 @@
       <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:10" ht="26.45" customHeight="1">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E13" s="15">
         <v>2</v>
@@ -2360,15 +2360,15 @@
       <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:10" ht="28.15" customHeight="1">
-      <c r="A14" s="44"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>127</v>
-      </c>
       <c r="D14" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E14" s="15">
         <v>1</v>
@@ -2382,13 +2382,13 @@
       <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:10" ht="28.15" customHeight="1">
-      <c r="A15" s="44"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="45"/>
       <c r="C15" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E15" s="15">
         <v>1</v>
@@ -2402,13 +2402,13 @@
       <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:10" ht="28.15" customHeight="1">
-      <c r="A16" s="44"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="45"/>
       <c r="C16" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E16" s="15">
         <v>2</v>
@@ -2422,13 +2422,13 @@
       <c r="H16" s="20"/>
     </row>
     <row r="17" spans="1:9" ht="49.5">
-      <c r="A17" s="44"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="45"/>
       <c r="C17" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E17" s="15">
         <v>3</v>
@@ -2442,13 +2442,13 @@
       <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="44"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="45"/>
       <c r="C18" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E18" s="15">
         <v>2</v>
@@ -2462,13 +2462,13 @@
       <c r="H18" s="20"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="44"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="45"/>
       <c r="C19" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E19" s="15">
         <v>2</v>
@@ -2482,13 +2482,13 @@
       <c r="H19" s="20"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="44"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="45"/>
       <c r="C20" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E20" s="15">
         <v>1</v>
@@ -2502,13 +2502,13 @@
       <c r="H20" s="20"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="44"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="45"/>
       <c r="C21" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E21" s="15">
         <v>1</v>
@@ -2522,13 +2522,13 @@
       <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="44"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="45"/>
       <c r="C22" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E22" s="15">
         <v>1</v>
@@ -2542,13 +2542,13 @@
       <c r="H22" s="20"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="44"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="45"/>
       <c r="C23" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E23" s="15">
         <v>2</v>
@@ -2562,15 +2562,15 @@
       <c r="H23" s="20"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="44"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="C24" s="23" t="s">
-        <v>138</v>
-      </c>
       <c r="D24" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E24" s="15">
         <v>2</v>
@@ -2584,17 +2584,17 @@
       <c r="H24" s="20"/>
     </row>
     <row r="25" spans="1:9" ht="33">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="C25" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="16" t="s">
-        <v>141</v>
-      </c>
       <c r="D25" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E25" s="15">
         <v>1</v>
@@ -2613,13 +2613,13 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="47"/>
-      <c r="B26" s="48"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E26" s="15">
         <v>1</v>
@@ -2633,15 +2633,15 @@
       <c r="H26" s="20"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="47"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>144</v>
-      </c>
       <c r="D27" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E27" s="15">
         <v>1</v>
@@ -2655,15 +2655,15 @@
       <c r="H27" s="20"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="47"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="D28" s="13" t="s">
         <v>146</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>147</v>
       </c>
       <c r="E28" s="15">
         <v>2</v>
@@ -2677,15 +2677,15 @@
       <c r="H28" s="20"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="47"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>149</v>
-      </c>
       <c r="D29" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E29" s="15">
         <v>2</v>
@@ -2699,15 +2699,15 @@
       <c r="H29" s="20"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="47"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C30" s="14" t="s">
-        <v>151</v>
-      </c>
       <c r="D30" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E30" s="15">
         <v>2</v>
@@ -2721,15 +2721,15 @@
       <c r="H30" s="20"/>
     </row>
     <row r="31" spans="1:9" ht="33">
-      <c r="A31" s="47"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="C31" s="16" t="s">
-        <v>153</v>
-      </c>
       <c r="D31" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E31" s="15">
         <v>2</v>
@@ -2743,15 +2743,15 @@
       <c r="H31" s="20"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="47"/>
-      <c r="B32" s="44" t="s">
+      <c r="A32" s="40"/>
+      <c r="B32" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>155</v>
-      </c>
       <c r="D32" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E32" s="15">
         <v>1</v>
@@ -2770,13 +2770,13 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="37.15" customHeight="1">
-      <c r="A33" s="47"/>
-      <c r="B33" s="44"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="42"/>
       <c r="C33" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E33" s="15">
         <v>1</v>
@@ -2796,15 +2796,15 @@
       <c r="J33" s="24"/>
     </row>
     <row r="34" spans="1:10" ht="34.15" customHeight="1">
-      <c r="A34" s="47"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="C34" s="14" t="s">
-        <v>158</v>
-      </c>
       <c r="D34" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E34" s="15">
         <v>1</v>
@@ -2823,15 +2823,15 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="34.15" customHeight="1">
-      <c r="A35" s="47"/>
-      <c r="B35" s="46" t="s">
+      <c r="A35" s="40"/>
+      <c r="B35" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="C35" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="C35" s="14" t="s">
-        <v>160</v>
-      </c>
       <c r="D35" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E35" s="15">
         <v>1</v>
@@ -2845,13 +2845,13 @@
       <c r="H35" s="20"/>
     </row>
     <row r="36" spans="1:10" ht="34.15" customHeight="1">
-      <c r="A36" s="47"/>
-      <c r="B36" s="48"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="41"/>
       <c r="C36" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E36" s="15">
         <v>1</v>
@@ -2865,15 +2865,15 @@
       <c r="H36" s="20"/>
     </row>
     <row r="37" spans="1:10" ht="34.15" customHeight="1">
-      <c r="A37" s="47"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>163</v>
-      </c>
       <c r="D37" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E37" s="15">
         <v>2</v>
@@ -2887,15 +2887,15 @@
       <c r="H37" s="20"/>
     </row>
     <row r="38" spans="1:10" ht="34.15" customHeight="1">
-      <c r="A38" s="47"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C38" s="14" t="s">
-        <v>165</v>
-      </c>
       <c r="D38" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E38" s="15">
         <v>1</v>
@@ -2909,15 +2909,15 @@
       <c r="H38" s="20"/>
     </row>
     <row r="39" spans="1:10" ht="34.15" customHeight="1">
-      <c r="A39" s="47"/>
+      <c r="A39" s="40"/>
       <c r="B39" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>167</v>
-      </c>
       <c r="D39" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E39" s="15">
         <v>1</v>
@@ -2931,15 +2931,15 @@
       <c r="H39" s="20"/>
     </row>
     <row r="40" spans="1:10" ht="26.45" customHeight="1">
-      <c r="A40" s="47"/>
-      <c r="B40" s="46" t="s">
+      <c r="A40" s="40"/>
+      <c r="B40" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="C40" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C40" s="14" t="s">
-        <v>169</v>
-      </c>
       <c r="D40" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E40" s="15">
         <v>1</v>
@@ -2953,13 +2953,13 @@
       <c r="H40" s="20"/>
     </row>
     <row r="41" spans="1:10" ht="26.45" customHeight="1">
-      <c r="A41" s="47"/>
-      <c r="B41" s="48"/>
+      <c r="A41" s="40"/>
+      <c r="B41" s="41"/>
       <c r="C41" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E41" s="15">
         <v>2</v>
@@ -2973,15 +2973,15 @@
       <c r="H41" s="20"/>
     </row>
     <row r="42" spans="1:10" ht="34.9" customHeight="1">
-      <c r="A42" s="47"/>
+      <c r="A42" s="40"/>
       <c r="B42" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C42" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="C42" s="16" t="s">
-        <v>172</v>
-      </c>
       <c r="D42" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E42" s="15">
         <v>1</v>
@@ -2995,15 +2995,15 @@
       <c r="H42" s="20"/>
     </row>
     <row r="43" spans="1:10" ht="34.15" customHeight="1">
-      <c r="A43" s="47"/>
+      <c r="A43" s="40"/>
       <c r="B43" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="C43" s="14" t="s">
-        <v>174</v>
-      </c>
       <c r="D43" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E43" s="15">
         <v>1</v>
@@ -3016,15 +3016,15 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="40.9" customHeight="1">
-      <c r="A44" s="47"/>
-      <c r="B44" s="44" t="s">
+      <c r="A44" s="40"/>
+      <c r="B44" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="C44" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="C44" s="16" t="s">
-        <v>176</v>
-      </c>
       <c r="D44" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E44" s="15">
         <v>3</v>
@@ -3037,13 +3037,13 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="34.15" customHeight="1">
-      <c r="A45" s="47"/>
-      <c r="B45" s="44"/>
+      <c r="A45" s="40"/>
+      <c r="B45" s="42"/>
       <c r="C45" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E45" s="15">
         <v>1</v>
@@ -3056,15 +3056,15 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="31.15" customHeight="1">
-      <c r="A46" s="47"/>
+      <c r="A46" s="40"/>
       <c r="B46" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C46" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="C46" s="14" t="s">
-        <v>179</v>
-      </c>
       <c r="D46" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E46" s="15">
         <v>1</v>
@@ -3079,15 +3079,15 @@
       <c r="J46" s="24"/>
     </row>
     <row r="47" spans="1:10" ht="37.9" customHeight="1">
-      <c r="A47" s="48"/>
+      <c r="A47" s="41"/>
       <c r="B47" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C47" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="C47" s="16" t="s">
-        <v>181</v>
-      </c>
       <c r="D47" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E47" s="15">
         <v>1</v>
@@ -3138,12 +3138,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A25:A47"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B44:B45"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A24"/>
     <mergeCell ref="B5:B7"/>
@@ -3151,6 +3145,12 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B23"/>
+    <mergeCell ref="A25:A47"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B44:B45"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3201,7 +3201,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="46" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -3214,7 +3214,7 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="40"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
@@ -3225,7 +3225,7 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="40"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
@@ -3236,7 +3236,7 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="40"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
@@ -3247,7 +3247,7 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="46" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -3260,7 +3260,7 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="40"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
@@ -3271,7 +3271,7 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="40"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="7" t="s">
         <v>18</v>
       </c>
@@ -3282,7 +3282,7 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="40"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="7" t="s">
         <v>19</v>
       </c>
@@ -3293,7 +3293,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="40"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
@@ -3304,7 +3304,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="40"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="7" t="s">
         <v>21</v>
       </c>
@@ -3315,7 +3315,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="46" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -3328,7 +3328,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A13" s="40"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="7" t="s">
         <v>23</v>
       </c>
@@ -3339,7 +3339,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="40"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="7" t="s">
         <v>24</v>
       </c>
@@ -3350,7 +3350,7 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="40"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="7" t="s">
         <v>25</v>
       </c>
@@ -3361,7 +3361,7 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="40"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="7" t="s">
         <v>26</v>
       </c>
@@ -3372,7 +3372,7 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="40"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="7" t="s">
         <v>27</v>
       </c>
@@ -3383,7 +3383,7 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="40"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="7" t="s">
         <v>28</v>
       </c>
@@ -3394,7 +3394,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="40"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="7" t="s">
         <v>29</v>
       </c>
@@ -3405,7 +3405,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="40"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="7" t="s">
         <v>30</v>
       </c>
@@ -3416,7 +3416,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A21" s="40"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="7" t="s">
         <v>31</v>
       </c>
@@ -3427,7 +3427,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="40"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="7" t="s">
         <v>32</v>
       </c>
@@ -3438,7 +3438,7 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="40"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="7" t="s">
         <v>33</v>
       </c>
@@ -3449,7 +3449,7 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="40"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="7" t="s">
         <v>34</v>
       </c>
@@ -3460,7 +3460,7 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A25" s="40"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="7" t="s">
         <v>35</v>
       </c>
@@ -3471,7 +3471,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="40"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="7" t="s">
         <v>36</v>
       </c>
@@ -3482,7 +3482,7 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="48" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -3495,7 +3495,7 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A28" s="41"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="7" t="s">
         <v>38</v>
       </c>
@@ -3506,7 +3506,7 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A29" s="41"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="7" t="s">
         <v>39</v>
       </c>
@@ -3517,7 +3517,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A30" s="41"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="7" t="s">
         <v>40</v>
       </c>
@@ -3528,7 +3528,7 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A31" s="41"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="7" t="s">
         <v>41</v>
       </c>
@@ -3539,7 +3539,7 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A32" s="41"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="7" t="s">
         <v>42</v>
       </c>
@@ -3550,7 +3550,7 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A33" s="41"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="7" t="s">
         <v>43</v>
       </c>
@@ -3561,7 +3561,7 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A34" s="41"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="7" t="s">
         <v>44</v>
       </c>
@@ -3572,7 +3572,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A35" s="41"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="7" t="s">
         <v>45</v>
       </c>
@@ -3583,7 +3583,7 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="48" t="s">
         <v>12</v>
       </c>
       <c r="B36" s="7" t="s">
@@ -3596,7 +3596,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A37" s="41"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="7" t="s">
         <v>47</v>
       </c>
@@ -3607,7 +3607,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A38" s="41"/>
+      <c r="A38" s="48"/>
       <c r="B38" s="7" t="s">
         <v>48</v>
       </c>
@@ -3618,7 +3618,7 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A39" s="41"/>
+      <c r="A39" s="48"/>
       <c r="B39" s="7" t="s">
         <v>49</v>
       </c>
@@ -3629,7 +3629,7 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A40" s="41"/>
+      <c r="A40" s="48"/>
       <c r="B40" s="7" t="s">
         <v>50</v>
       </c>
@@ -3640,7 +3640,7 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A41" s="41"/>
+      <c r="A41" s="48"/>
       <c r="B41" s="7" t="s">
         <v>51</v>
       </c>
@@ -3651,7 +3651,7 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A42" s="41"/>
+      <c r="A42" s="48"/>
       <c r="B42" s="7" t="s">
         <v>52</v>
       </c>
@@ -3671,5 +3671,6 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DOC/开发计划/DMS开发计划-2.12.xlsx
+++ b/DOC/开发计划/DMS开发计划-2.12.xlsx
@@ -735,11 +735,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>提示认证成功，用户名，密码及一些基本注意事项等提示信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>微信相关功能测试</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示认证成功，用户名，密码及一些基本注意事项等提示信息</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1029,6 +1029,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1036,18 +1048,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1396,7 +1396,7 @@
   <dimension ref="A1:XDT35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1609,7 +1609,7 @@
         <v>72</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>90</v>
@@ -1992,7 +1992,7 @@
     <row r="35" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A35" s="37"/>
       <c r="B35" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8" t="s">
@@ -2043,18 +2043,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="13" t="s">
@@ -2089,7 +2089,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="37.9" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="41" t="s">
         <v>105</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -2119,7 +2119,7 @@
       <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10" ht="29.45" customHeight="1">
-      <c r="A4" s="42"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="13" t="s">
         <v>109</v>
       </c>
@@ -2147,8 +2147,8 @@
       <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10" ht="40.9" customHeight="1">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42" t="s">
+      <c r="A5" s="41"/>
+      <c r="B5" s="41" t="s">
         <v>111</v>
       </c>
       <c r="C5" s="16" t="s">
@@ -2175,8 +2175,8 @@
       <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10" ht="34.15" customHeight="1">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="16" t="s">
         <v>114</v>
       </c>
@@ -2201,8 +2201,8 @@
       <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" ht="49.15" customHeight="1">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="16" t="s">
         <v>115</v>
       </c>
@@ -2227,8 +2227,8 @@
       <c r="J7" s="19"/>
     </row>
     <row r="8" spans="1:10" ht="35.450000000000003" customHeight="1">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42" t="s">
+      <c r="A8" s="41"/>
+      <c r="B8" s="41" t="s">
         <v>116</v>
       </c>
       <c r="C8" s="14" t="s">
@@ -2254,8 +2254,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="14" t="s">
         <v>118</v>
       </c>
@@ -2276,8 +2276,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="26.45" customHeight="1">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42" t="s">
+      <c r="A10" s="41"/>
+      <c r="B10" s="41" t="s">
         <v>119</v>
       </c>
       <c r="C10" s="14" t="s">
@@ -2298,8 +2298,8 @@
       <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:10" ht="26.45" customHeight="1">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="14" t="s">
         <v>121</v>
       </c>
@@ -2318,8 +2318,8 @@
       <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:10" ht="26.45" customHeight="1">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42" t="s">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41" t="s">
         <v>122</v>
       </c>
       <c r="C12" s="14" t="s">
@@ -2340,8 +2340,8 @@
       <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:10" ht="26.45" customHeight="1">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="14" t="s">
         <v>124</v>
       </c>
@@ -2360,8 +2360,8 @@
       <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:10" ht="28.15" customHeight="1">
-      <c r="A14" s="42"/>
-      <c r="B14" s="45" t="s">
+      <c r="A14" s="41"/>
+      <c r="B14" s="42" t="s">
         <v>125</v>
       </c>
       <c r="C14" s="14" t="s">
@@ -2382,8 +2382,8 @@
       <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:10" ht="28.15" customHeight="1">
-      <c r="A15" s="42"/>
-      <c r="B15" s="45"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="14" t="s">
         <v>127</v>
       </c>
@@ -2402,8 +2402,8 @@
       <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:10" ht="28.15" customHeight="1">
-      <c r="A16" s="42"/>
-      <c r="B16" s="45"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="14" t="s">
         <v>128</v>
       </c>
@@ -2422,8 +2422,8 @@
       <c r="H16" s="20"/>
     </row>
     <row r="17" spans="1:9" ht="49.5">
-      <c r="A17" s="42"/>
-      <c r="B17" s="45"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="21" t="s">
         <v>129</v>
       </c>
@@ -2442,8 +2442,8 @@
       <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="42"/>
-      <c r="B18" s="45"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="14" t="s">
         <v>130</v>
       </c>
@@ -2462,8 +2462,8 @@
       <c r="H18" s="20"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="42"/>
-      <c r="B19" s="45"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="14" t="s">
         <v>131</v>
       </c>
@@ -2482,8 +2482,8 @@
       <c r="H19" s="20"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="42"/>
-      <c r="B20" s="45"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="14" t="s">
         <v>132</v>
       </c>
@@ -2502,8 +2502,8 @@
       <c r="H20" s="20"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="42"/>
-      <c r="B21" s="45"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="14" t="s">
         <v>133</v>
       </c>
@@ -2522,8 +2522,8 @@
       <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="42"/>
-      <c r="B22" s="45"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="14" t="s">
         <v>134</v>
       </c>
@@ -2542,8 +2542,8 @@
       <c r="H22" s="20"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="42"/>
-      <c r="B23" s="45"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="14" t="s">
         <v>135</v>
       </c>
@@ -2562,7 +2562,7 @@
       <c r="H23" s="20"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="42"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="22" t="s">
         <v>136</v>
       </c>
@@ -2584,10 +2584,10 @@
       <c r="H24" s="20"/>
     </row>
     <row r="25" spans="1:9" ht="33">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="43" t="s">
         <v>139</v>
       </c>
       <c r="C25" s="16" t="s">
@@ -2613,8 +2613,8 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="40"/>
-      <c r="B26" s="41"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="16" t="s">
         <v>141</v>
       </c>
@@ -2633,7 +2633,7 @@
       <c r="H26" s="20"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="40"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="13" t="s">
         <v>142</v>
       </c>
@@ -2655,7 +2655,7 @@
       <c r="H27" s="20"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="40"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="13" t="s">
         <v>144</v>
       </c>
@@ -2677,7 +2677,7 @@
       <c r="H28" s="20"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="40"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="13" t="s">
         <v>147</v>
       </c>
@@ -2699,7 +2699,7 @@
       <c r="H29" s="20"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="40"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="13" t="s">
         <v>149</v>
       </c>
@@ -2721,7 +2721,7 @@
       <c r="H30" s="20"/>
     </row>
     <row r="31" spans="1:9" ht="33">
-      <c r="A31" s="40"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="13" t="s">
         <v>151</v>
       </c>
@@ -2743,8 +2743,8 @@
       <c r="H31" s="20"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="40"/>
-      <c r="B32" s="42" t="s">
+      <c r="A32" s="44"/>
+      <c r="B32" s="41" t="s">
         <v>153</v>
       </c>
       <c r="C32" s="14" t="s">
@@ -2770,8 +2770,8 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="37.15" customHeight="1">
-      <c r="A33" s="40"/>
-      <c r="B33" s="42"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="41"/>
       <c r="C33" s="14" t="s">
         <v>155</v>
       </c>
@@ -2796,7 +2796,7 @@
       <c r="J33" s="24"/>
     </row>
     <row r="34" spans="1:10" ht="34.15" customHeight="1">
-      <c r="A34" s="40"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="13" t="s">
         <v>156</v>
       </c>
@@ -2823,8 +2823,8 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="34.15" customHeight="1">
-      <c r="A35" s="40"/>
-      <c r="B35" s="39" t="s">
+      <c r="A35" s="44"/>
+      <c r="B35" s="43" t="s">
         <v>158</v>
       </c>
       <c r="C35" s="14" t="s">
@@ -2845,8 +2845,8 @@
       <c r="H35" s="20"/>
     </row>
     <row r="36" spans="1:10" ht="34.15" customHeight="1">
-      <c r="A36" s="40"/>
-      <c r="B36" s="41"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="45"/>
       <c r="C36" s="14" t="s">
         <v>160</v>
       </c>
@@ -2865,7 +2865,7 @@
       <c r="H36" s="20"/>
     </row>
     <row r="37" spans="1:10" ht="34.15" customHeight="1">
-      <c r="A37" s="40"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="13" t="s">
         <v>161</v>
       </c>
@@ -2887,7 +2887,7 @@
       <c r="H37" s="20"/>
     </row>
     <row r="38" spans="1:10" ht="34.15" customHeight="1">
-      <c r="A38" s="40"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="13" t="s">
         <v>163</v>
       </c>
@@ -2909,7 +2909,7 @@
       <c r="H38" s="20"/>
     </row>
     <row r="39" spans="1:10" ht="34.15" customHeight="1">
-      <c r="A39" s="40"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="13" t="s">
         <v>165</v>
       </c>
@@ -2931,8 +2931,8 @@
       <c r="H39" s="20"/>
     </row>
     <row r="40" spans="1:10" ht="26.45" customHeight="1">
-      <c r="A40" s="40"/>
-      <c r="B40" s="39" t="s">
+      <c r="A40" s="44"/>
+      <c r="B40" s="43" t="s">
         <v>167</v>
       </c>
       <c r="C40" s="14" t="s">
@@ -2953,8 +2953,8 @@
       <c r="H40" s="20"/>
     </row>
     <row r="41" spans="1:10" ht="26.45" customHeight="1">
-      <c r="A41" s="40"/>
-      <c r="B41" s="41"/>
+      <c r="A41" s="44"/>
+      <c r="B41" s="45"/>
       <c r="C41" s="14" t="s">
         <v>169</v>
       </c>
@@ -2973,7 +2973,7 @@
       <c r="H41" s="20"/>
     </row>
     <row r="42" spans="1:10" ht="34.9" customHeight="1">
-      <c r="A42" s="40"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="13" t="s">
         <v>170</v>
       </c>
@@ -2995,7 +2995,7 @@
       <c r="H42" s="20"/>
     </row>
     <row r="43" spans="1:10" ht="34.15" customHeight="1">
-      <c r="A43" s="40"/>
+      <c r="A43" s="44"/>
       <c r="B43" s="13" t="s">
         <v>172</v>
       </c>
@@ -3016,8 +3016,8 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="40.9" customHeight="1">
-      <c r="A44" s="40"/>
-      <c r="B44" s="42" t="s">
+      <c r="A44" s="44"/>
+      <c r="B44" s="41" t="s">
         <v>174</v>
       </c>
       <c r="C44" s="16" t="s">
@@ -3037,8 +3037,8 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="34.15" customHeight="1">
-      <c r="A45" s="40"/>
-      <c r="B45" s="42"/>
+      <c r="A45" s="44"/>
+      <c r="B45" s="41"/>
       <c r="C45" s="16" t="s">
         <v>176</v>
       </c>
@@ -3056,7 +3056,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="31.15" customHeight="1">
-      <c r="A46" s="40"/>
+      <c r="A46" s="44"/>
       <c r="B46" s="13" t="s">
         <v>177</v>
       </c>
@@ -3079,7 +3079,7 @@
       <c r="J46" s="24"/>
     </row>
     <row r="47" spans="1:10" ht="37.9" customHeight="1">
-      <c r="A47" s="41"/>
+      <c r="A47" s="45"/>
       <c r="B47" s="13" t="s">
         <v>179</v>
       </c>
@@ -3138,6 +3138,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A25:A47"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B44:B45"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A24"/>
     <mergeCell ref="B5:B7"/>
@@ -3145,12 +3151,6 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B23"/>
-    <mergeCell ref="A25:A47"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B44:B45"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOC/开发计划/DMS开发计划-2.12.xlsx
+++ b/DOC/开发计划/DMS开发计划-2.12.xlsx
@@ -201,10 +201,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>工单返单之后对应的其他应付单的数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>返单后，其他应付单的数据处理</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -237,10 +233,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>储值卡的流水</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>计次卡的流水</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -261,27 +253,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>认证成功后发一条短信给用户</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>七牛图片上传后接口开发及测试</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>七牛图片上传前端事例开发及测试</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>注意JDK环境及需要的JAR包</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>仪表盘</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>营业日报</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -740,6 +720,26 @@
   </si>
   <si>
     <t>微信相关功能测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>七牛图片上传前端事例开发及测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>储值卡的流水</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单返单之后对应的其他应付单的数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证成功后发一条短信给用户</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业日报</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1395,8 +1395,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:XDT35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1444,7 +1444,7 @@
         <v>56</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E2" s="9">
         <v>43508</v>
@@ -1462,7 +1462,7 @@
         <v>56</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E3" s="9">
         <v>43508</v>
@@ -1474,13 +1474,13 @@
     <row r="4" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A4" s="36"/>
       <c r="B4" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>58</v>
-      </c>
       <c r="D4" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E4" s="9">
         <v>43508</v>
@@ -1492,13 +1492,13 @@
     <row r="5" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A5" s="36"/>
       <c r="B5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>60</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E5" s="9">
         <v>43508</v>
@@ -1510,11 +1510,11 @@
     <row r="6" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A6" s="36"/>
       <c r="B6" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E6" s="9">
         <v>43509</v>
@@ -1526,11 +1526,11 @@
     <row r="7" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A7" s="36"/>
       <c r="B7" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E7" s="9">
         <v>43510</v>
@@ -1542,11 +1542,11 @@
     <row r="8" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A8" s="36"/>
       <c r="B8" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E8" s="9">
         <v>43510</v>
@@ -1558,11 +1558,11 @@
     <row r="9" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A9" s="36"/>
       <c r="B9" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E9" s="9">
         <v>43522</v>
@@ -1574,11 +1574,11 @@
     <row r="10" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A10" s="36"/>
       <c r="B10" s="8" t="s">
-        <v>66</v>
+        <v>187</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E10" s="9">
         <v>43514</v>
@@ -1590,11 +1590,11 @@
     <row r="11" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A11" s="36"/>
       <c r="B11" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E11" s="9">
         <v>43514</v>
@@ -1606,13 +1606,13 @@
     <row r="12" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A12" s="36"/>
       <c r="B12" s="8" t="s">
-        <v>72</v>
+        <v>189</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E12" s="9">
         <v>43509</v>
@@ -1624,13 +1624,13 @@
     <row r="13" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A13" s="36"/>
       <c r="B13" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E13" s="9">
         <v>43511</v>
@@ -1642,11 +1642,11 @@
     <row r="14" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A14" s="36"/>
       <c r="B14" s="8" t="s">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E14" s="9">
         <v>43514</v>
@@ -1658,11 +1658,11 @@
     <row r="15" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A15" s="36"/>
       <c r="B15" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E15" s="9">
         <v>43511</v>
@@ -1674,11 +1674,11 @@
     <row r="16" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A16" s="36"/>
       <c r="B16" s="8" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E16" s="9">
         <v>43511</v>
@@ -1690,11 +1690,11 @@
     <row r="17" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A17" s="36"/>
       <c r="B17" s="8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E17" s="9">
         <v>43511</v>
@@ -1706,11 +1706,11 @@
     <row r="18" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A18" s="36"/>
       <c r="B18" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E18" s="9">
         <v>43511</v>
@@ -1722,11 +1722,11 @@
     <row r="19" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A19" s="36"/>
       <c r="B19" s="8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E19" s="9">
         <v>43511</v>
@@ -1738,11 +1738,11 @@
     <row r="20" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A20" s="36"/>
       <c r="B20" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E20" s="9">
         <v>43511</v>
@@ -1753,14 +1753,14 @@
     </row>
     <row r="21" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A21" s="35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E21" s="9">
         <v>43515</v>
@@ -1772,11 +1772,11 @@
     <row r="22" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A22" s="36"/>
       <c r="B22" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E22" s="9">
         <v>43515</v>
@@ -1788,11 +1788,11 @@
     <row r="23" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A23" s="36"/>
       <c r="B23" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E23" s="9">
         <v>43516</v>
@@ -1804,11 +1804,11 @@
     <row r="24" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A24" s="36"/>
       <c r="B24" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E24" s="9">
         <v>43516</v>
@@ -1820,11 +1820,11 @@
     <row r="25" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A25" s="36"/>
       <c r="B25" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E25" s="9">
         <v>43515</v>
@@ -1836,11 +1836,11 @@
     <row r="26" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A26" s="36"/>
       <c r="B26" s="8" t="s">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E26" s="9">
         <v>43516</v>
@@ -1852,13 +1852,13 @@
     <row r="27" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A27" s="36"/>
       <c r="B27" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E27" s="9">
         <v>43524</v>
@@ -1870,13 +1870,13 @@
     <row r="28" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A28" s="36"/>
       <c r="B28" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E28" s="9">
         <v>43524</v>
@@ -1888,11 +1888,11 @@
     <row r="29" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A29" s="36"/>
       <c r="B29" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E29" s="9">
         <v>43509</v>
@@ -1904,11 +1904,11 @@
     <row r="30" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A30" s="36"/>
       <c r="B30" s="8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E30" s="9">
         <v>43516</v>
@@ -1919,16 +1919,16 @@
     </row>
     <row r="31" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A31" s="35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E31" s="9">
         <v>43508</v>
@@ -1940,13 +1940,13 @@
     <row r="32" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A32" s="36"/>
       <c r="B32" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E32" s="9">
         <v>43508</v>
@@ -1958,13 +1958,13 @@
     <row r="33" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A33" s="36"/>
       <c r="B33" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E33" s="9">
         <v>43508</v>
@@ -1976,11 +1976,11 @@
     <row r="34" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A34" s="36"/>
       <c r="B34" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E34" s="9">
         <v>43508</v>
@@ -1992,11 +1992,11 @@
     <row r="35" spans="1:8" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A35" s="37"/>
       <c r="B35" s="8" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E35" s="9">
         <v>43524</v>
@@ -2044,7 +2044,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="24" customHeight="1">
       <c r="A1" s="39" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="39"/>
@@ -2058,48 +2058,48 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="H2" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="J2" s="13" t="s">
         <v>99</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="37.9" customHeight="1">
       <c r="A3" s="41" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E3" s="15">
         <v>2</v>
@@ -2121,13 +2121,13 @@
     <row r="4" spans="1:10" ht="29.45" customHeight="1">
       <c r="A4" s="41"/>
       <c r="B4" s="13" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E4" s="15">
         <v>1</v>
@@ -2149,13 +2149,13 @@
     <row r="5" spans="1:10" ht="40.9" customHeight="1">
       <c r="A5" s="41"/>
       <c r="B5" s="41" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E5" s="15">
         <v>1</v>
@@ -2178,10 +2178,10 @@
       <c r="A6" s="41"/>
       <c r="B6" s="41"/>
       <c r="C6" s="16" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E6" s="15">
         <v>1</v>
@@ -2204,10 +2204,10 @@
       <c r="A7" s="41"/>
       <c r="B7" s="41"/>
       <c r="C7" s="16" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E7" s="15">
         <v>2</v>
@@ -2229,13 +2229,13 @@
     <row r="8" spans="1:10" ht="35.450000000000003" customHeight="1">
       <c r="A8" s="41"/>
       <c r="B8" s="41" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E8" s="15">
         <v>1</v>
@@ -2257,10 +2257,10 @@
       <c r="A9" s="41"/>
       <c r="B9" s="41"/>
       <c r="C9" s="14" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E9" s="15">
         <v>2</v>
@@ -2278,13 +2278,13 @@
     <row r="10" spans="1:10" ht="26.45" customHeight="1">
       <c r="A10" s="41"/>
       <c r="B10" s="41" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E10" s="13">
         <v>2</v>
@@ -2301,10 +2301,10 @@
       <c r="A11" s="41"/>
       <c r="B11" s="41"/>
       <c r="C11" s="14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E11" s="13">
         <v>1</v>
@@ -2320,13 +2320,13 @@
     <row r="12" spans="1:10" ht="26.45" customHeight="1">
       <c r="A12" s="41"/>
       <c r="B12" s="41" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E12" s="15">
         <v>2</v>
@@ -2343,10 +2343,10 @@
       <c r="A13" s="41"/>
       <c r="B13" s="41"/>
       <c r="C13" s="14" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E13" s="15">
         <v>2</v>
@@ -2362,13 +2362,13 @@
     <row r="14" spans="1:10" ht="28.15" customHeight="1">
       <c r="A14" s="41"/>
       <c r="B14" s="42" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E14" s="15">
         <v>1</v>
@@ -2385,10 +2385,10 @@
       <c r="A15" s="41"/>
       <c r="B15" s="42"/>
       <c r="C15" s="14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E15" s="15">
         <v>1</v>
@@ -2405,10 +2405,10 @@
       <c r="A16" s="41"/>
       <c r="B16" s="42"/>
       <c r="C16" s="14" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E16" s="15">
         <v>2</v>
@@ -2425,10 +2425,10 @@
       <c r="A17" s="41"/>
       <c r="B17" s="42"/>
       <c r="C17" s="21" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E17" s="15">
         <v>3</v>
@@ -2445,10 +2445,10 @@
       <c r="A18" s="41"/>
       <c r="B18" s="42"/>
       <c r="C18" s="14" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E18" s="15">
         <v>2</v>
@@ -2465,10 +2465,10 @@
       <c r="A19" s="41"/>
       <c r="B19" s="42"/>
       <c r="C19" s="14" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E19" s="15">
         <v>2</v>
@@ -2485,10 +2485,10 @@
       <c r="A20" s="41"/>
       <c r="B20" s="42"/>
       <c r="C20" s="14" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E20" s="15">
         <v>1</v>
@@ -2505,10 +2505,10 @@
       <c r="A21" s="41"/>
       <c r="B21" s="42"/>
       <c r="C21" s="14" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E21" s="15">
         <v>1</v>
@@ -2525,10 +2525,10 @@
       <c r="A22" s="41"/>
       <c r="B22" s="42"/>
       <c r="C22" s="14" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E22" s="15">
         <v>1</v>
@@ -2545,10 +2545,10 @@
       <c r="A23" s="41"/>
       <c r="B23" s="42"/>
       <c r="C23" s="14" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E23" s="15">
         <v>2</v>
@@ -2564,13 +2564,13 @@
     <row r="24" spans="1:9">
       <c r="A24" s="41"/>
       <c r="B24" s="22" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E24" s="15">
         <v>2</v>
@@ -2585,16 +2585,16 @@
     </row>
     <row r="25" spans="1:9" ht="33">
       <c r="A25" s="43" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E25" s="15">
         <v>1</v>
@@ -2616,10 +2616,10 @@
       <c r="A26" s="44"/>
       <c r="B26" s="45"/>
       <c r="C26" s="16" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E26" s="15">
         <v>1</v>
@@ -2635,13 +2635,13 @@
     <row r="27" spans="1:9">
       <c r="A27" s="44"/>
       <c r="B27" s="13" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E27" s="15">
         <v>1</v>
@@ -2657,13 +2657,13 @@
     <row r="28" spans="1:9">
       <c r="A28" s="44"/>
       <c r="B28" s="13" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E28" s="15">
         <v>2</v>
@@ -2679,13 +2679,13 @@
     <row r="29" spans="1:9">
       <c r="A29" s="44"/>
       <c r="B29" s="13" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E29" s="15">
         <v>2</v>
@@ -2701,13 +2701,13 @@
     <row r="30" spans="1:9">
       <c r="A30" s="44"/>
       <c r="B30" s="13" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E30" s="15">
         <v>2</v>
@@ -2723,13 +2723,13 @@
     <row r="31" spans="1:9" ht="33">
       <c r="A31" s="44"/>
       <c r="B31" s="13" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E31" s="15">
         <v>2</v>
@@ -2745,13 +2745,13 @@
     <row r="32" spans="1:9">
       <c r="A32" s="44"/>
       <c r="B32" s="41" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E32" s="15">
         <v>1</v>
@@ -2773,10 +2773,10 @@
       <c r="A33" s="44"/>
       <c r="B33" s="41"/>
       <c r="C33" s="14" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E33" s="15">
         <v>1</v>
@@ -2798,13 +2798,13 @@
     <row r="34" spans="1:10" ht="34.15" customHeight="1">
       <c r="A34" s="44"/>
       <c r="B34" s="13" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E34" s="15">
         <v>1</v>
@@ -2825,13 +2825,13 @@
     <row r="35" spans="1:10" ht="34.15" customHeight="1">
       <c r="A35" s="44"/>
       <c r="B35" s="43" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E35" s="15">
         <v>1</v>
@@ -2848,10 +2848,10 @@
       <c r="A36" s="44"/>
       <c r="B36" s="45"/>
       <c r="C36" s="14" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E36" s="15">
         <v>1</v>
@@ -2867,13 +2867,13 @@
     <row r="37" spans="1:10" ht="34.15" customHeight="1">
       <c r="A37" s="44"/>
       <c r="B37" s="13" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E37" s="15">
         <v>2</v>
@@ -2889,13 +2889,13 @@
     <row r="38" spans="1:10" ht="34.15" customHeight="1">
       <c r="A38" s="44"/>
       <c r="B38" s="13" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E38" s="15">
         <v>1</v>
@@ -2911,13 +2911,13 @@
     <row r="39" spans="1:10" ht="34.15" customHeight="1">
       <c r="A39" s="44"/>
       <c r="B39" s="13" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E39" s="15">
         <v>1</v>
@@ -2933,13 +2933,13 @@
     <row r="40" spans="1:10" ht="26.45" customHeight="1">
       <c r="A40" s="44"/>
       <c r="B40" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E40" s="15">
         <v>1</v>
@@ -2956,10 +2956,10 @@
       <c r="A41" s="44"/>
       <c r="B41" s="45"/>
       <c r="C41" s="14" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E41" s="15">
         <v>2</v>
@@ -2975,13 +2975,13 @@
     <row r="42" spans="1:10" ht="34.9" customHeight="1">
       <c r="A42" s="44"/>
       <c r="B42" s="13" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E42" s="15">
         <v>1</v>
@@ -2997,13 +2997,13 @@
     <row r="43" spans="1:10" ht="34.15" customHeight="1">
       <c r="A43" s="44"/>
       <c r="B43" s="13" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E43" s="15">
         <v>1</v>
@@ -3018,13 +3018,13 @@
     <row r="44" spans="1:10" ht="40.9" customHeight="1">
       <c r="A44" s="44"/>
       <c r="B44" s="41" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E44" s="15">
         <v>3</v>
@@ -3040,10 +3040,10 @@
       <c r="A45" s="44"/>
       <c r="B45" s="41"/>
       <c r="C45" s="16" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E45" s="15">
         <v>1</v>
@@ -3058,13 +3058,13 @@
     <row r="46" spans="1:10" ht="31.15" customHeight="1">
       <c r="A46" s="44"/>
       <c r="B46" s="13" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E46" s="15">
         <v>1</v>
@@ -3081,13 +3081,13 @@
     <row r="47" spans="1:10" ht="37.9" customHeight="1">
       <c r="A47" s="45"/>
       <c r="B47" s="13" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E47" s="15">
         <v>1</v>

--- a/DOC/开发计划/DMS开发计划-2.12.xlsx
+++ b/DOC/开发计划/DMS开发计划-2.12.xlsx
@@ -1029,25 +1029,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1395,8 +1395,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:XDT35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -2043,18 +2043,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="13" t="s">
@@ -2089,7 +2089,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="37.9" customHeight="1">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="42" t="s">
         <v>100</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -2119,7 +2119,7 @@
       <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10" ht="29.45" customHeight="1">
-      <c r="A4" s="41"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="13" t="s">
         <v>104</v>
       </c>
@@ -2147,8 +2147,8 @@
       <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10" ht="40.9" customHeight="1">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41" t="s">
+      <c r="A5" s="42"/>
+      <c r="B5" s="42" t="s">
         <v>106</v>
       </c>
       <c r="C5" s="16" t="s">
@@ -2175,8 +2175,8 @@
       <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10" ht="34.15" customHeight="1">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="16" t="s">
         <v>109</v>
       </c>
@@ -2201,8 +2201,8 @@
       <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" ht="49.15" customHeight="1">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="16" t="s">
         <v>110</v>
       </c>
@@ -2227,8 +2227,8 @@
       <c r="J7" s="19"/>
     </row>
     <row r="8" spans="1:10" ht="35.450000000000003" customHeight="1">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41" t="s">
+      <c r="A8" s="42"/>
+      <c r="B8" s="42" t="s">
         <v>111</v>
       </c>
       <c r="C8" s="14" t="s">
@@ -2254,8 +2254,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="14" t="s">
         <v>113</v>
       </c>
@@ -2276,8 +2276,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="26.45" customHeight="1">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41" t="s">
+      <c r="A10" s="42"/>
+      <c r="B10" s="42" t="s">
         <v>114</v>
       </c>
       <c r="C10" s="14" t="s">
@@ -2298,8 +2298,8 @@
       <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:10" ht="26.45" customHeight="1">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="14" t="s">
         <v>116</v>
       </c>
@@ -2318,8 +2318,8 @@
       <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:10" ht="26.45" customHeight="1">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41" t="s">
+      <c r="A12" s="42"/>
+      <c r="B12" s="42" t="s">
         <v>117</v>
       </c>
       <c r="C12" s="14" t="s">
@@ -2340,8 +2340,8 @@
       <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:10" ht="26.45" customHeight="1">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="14" t="s">
         <v>119</v>
       </c>
@@ -2360,8 +2360,8 @@
       <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:10" ht="28.15" customHeight="1">
-      <c r="A14" s="41"/>
-      <c r="B14" s="42" t="s">
+      <c r="A14" s="42"/>
+      <c r="B14" s="45" t="s">
         <v>120</v>
       </c>
       <c r="C14" s="14" t="s">
@@ -2382,8 +2382,8 @@
       <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:10" ht="28.15" customHeight="1">
-      <c r="A15" s="41"/>
-      <c r="B15" s="42"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="14" t="s">
         <v>122</v>
       </c>
@@ -2402,8 +2402,8 @@
       <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:10" ht="28.15" customHeight="1">
-      <c r="A16" s="41"/>
-      <c r="B16" s="42"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="14" t="s">
         <v>123</v>
       </c>
@@ -2422,8 +2422,8 @@
       <c r="H16" s="20"/>
     </row>
     <row r="17" spans="1:9" ht="49.5">
-      <c r="A17" s="41"/>
-      <c r="B17" s="42"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="21" t="s">
         <v>124</v>
       </c>
@@ -2442,8 +2442,8 @@
       <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="41"/>
-      <c r="B18" s="42"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="14" t="s">
         <v>125</v>
       </c>
@@ -2462,8 +2462,8 @@
       <c r="H18" s="20"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="41"/>
-      <c r="B19" s="42"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="14" t="s">
         <v>126</v>
       </c>
@@ -2482,8 +2482,8 @@
       <c r="H19" s="20"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="41"/>
-      <c r="B20" s="42"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="14" t="s">
         <v>127</v>
       </c>
@@ -2502,8 +2502,8 @@
       <c r="H20" s="20"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="41"/>
-      <c r="B21" s="42"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="14" t="s">
         <v>128</v>
       </c>
@@ -2522,8 +2522,8 @@
       <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="41"/>
-      <c r="B22" s="42"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="45"/>
       <c r="C22" s="14" t="s">
         <v>129</v>
       </c>
@@ -2542,8 +2542,8 @@
       <c r="H22" s="20"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="41"/>
-      <c r="B23" s="42"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="14" t="s">
         <v>130</v>
       </c>
@@ -2562,7 +2562,7 @@
       <c r="H23" s="20"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="41"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="22" t="s">
         <v>131</v>
       </c>
@@ -2584,10 +2584,10 @@
       <c r="H24" s="20"/>
     </row>
     <row r="25" spans="1:9" ht="33">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="39" t="s">
         <v>134</v>
       </c>
       <c r="C25" s="16" t="s">
@@ -2613,8 +2613,8 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="44"/>
-      <c r="B26" s="45"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="16" t="s">
         <v>136</v>
       </c>
@@ -2633,7 +2633,7 @@
       <c r="H26" s="20"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="44"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="13" t="s">
         <v>137</v>
       </c>
@@ -2655,7 +2655,7 @@
       <c r="H27" s="20"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="44"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="13" t="s">
         <v>139</v>
       </c>
@@ -2677,7 +2677,7 @@
       <c r="H28" s="20"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="44"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="13" t="s">
         <v>142</v>
       </c>
@@ -2699,7 +2699,7 @@
       <c r="H29" s="20"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="44"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="13" t="s">
         <v>144</v>
       </c>
@@ -2721,7 +2721,7 @@
       <c r="H30" s="20"/>
     </row>
     <row r="31" spans="1:9" ht="33">
-      <c r="A31" s="44"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="13" t="s">
         <v>146</v>
       </c>
@@ -2743,8 +2743,8 @@
       <c r="H31" s="20"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="44"/>
-      <c r="B32" s="41" t="s">
+      <c r="A32" s="40"/>
+      <c r="B32" s="42" t="s">
         <v>148</v>
       </c>
       <c r="C32" s="14" t="s">
@@ -2770,8 +2770,8 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="37.15" customHeight="1">
-      <c r="A33" s="44"/>
-      <c r="B33" s="41"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="42"/>
       <c r="C33" s="14" t="s">
         <v>150</v>
       </c>
@@ -2796,7 +2796,7 @@
       <c r="J33" s="24"/>
     </row>
     <row r="34" spans="1:10" ht="34.15" customHeight="1">
-      <c r="A34" s="44"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="13" t="s">
         <v>151</v>
       </c>
@@ -2823,8 +2823,8 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="34.15" customHeight="1">
-      <c r="A35" s="44"/>
-      <c r="B35" s="43" t="s">
+      <c r="A35" s="40"/>
+      <c r="B35" s="39" t="s">
         <v>153</v>
       </c>
       <c r="C35" s="14" t="s">
@@ -2845,8 +2845,8 @@
       <c r="H35" s="20"/>
     </row>
     <row r="36" spans="1:10" ht="34.15" customHeight="1">
-      <c r="A36" s="44"/>
-      <c r="B36" s="45"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="41"/>
       <c r="C36" s="14" t="s">
         <v>155</v>
       </c>
@@ -2865,7 +2865,7 @@
       <c r="H36" s="20"/>
     </row>
     <row r="37" spans="1:10" ht="34.15" customHeight="1">
-      <c r="A37" s="44"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="13" t="s">
         <v>156</v>
       </c>
@@ -2887,7 +2887,7 @@
       <c r="H37" s="20"/>
     </row>
     <row r="38" spans="1:10" ht="34.15" customHeight="1">
-      <c r="A38" s="44"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="13" t="s">
         <v>158</v>
       </c>
@@ -2909,7 +2909,7 @@
       <c r="H38" s="20"/>
     </row>
     <row r="39" spans="1:10" ht="34.15" customHeight="1">
-      <c r="A39" s="44"/>
+      <c r="A39" s="40"/>
       <c r="B39" s="13" t="s">
         <v>160</v>
       </c>
@@ -2931,8 +2931,8 @@
       <c r="H39" s="20"/>
     </row>
     <row r="40" spans="1:10" ht="26.45" customHeight="1">
-      <c r="A40" s="44"/>
-      <c r="B40" s="43" t="s">
+      <c r="A40" s="40"/>
+      <c r="B40" s="39" t="s">
         <v>162</v>
       </c>
       <c r="C40" s="14" t="s">
@@ -2953,8 +2953,8 @@
       <c r="H40" s="20"/>
     </row>
     <row r="41" spans="1:10" ht="26.45" customHeight="1">
-      <c r="A41" s="44"/>
-      <c r="B41" s="45"/>
+      <c r="A41" s="40"/>
+      <c r="B41" s="41"/>
       <c r="C41" s="14" t="s">
         <v>164</v>
       </c>
@@ -2973,7 +2973,7 @@
       <c r="H41" s="20"/>
     </row>
     <row r="42" spans="1:10" ht="34.9" customHeight="1">
-      <c r="A42" s="44"/>
+      <c r="A42" s="40"/>
       <c r="B42" s="13" t="s">
         <v>165</v>
       </c>
@@ -2995,7 +2995,7 @@
       <c r="H42" s="20"/>
     </row>
     <row r="43" spans="1:10" ht="34.15" customHeight="1">
-      <c r="A43" s="44"/>
+      <c r="A43" s="40"/>
       <c r="B43" s="13" t="s">
         <v>167</v>
       </c>
@@ -3016,8 +3016,8 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="40.9" customHeight="1">
-      <c r="A44" s="44"/>
-      <c r="B44" s="41" t="s">
+      <c r="A44" s="40"/>
+      <c r="B44" s="42" t="s">
         <v>169</v>
       </c>
       <c r="C44" s="16" t="s">
@@ -3037,8 +3037,8 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="34.15" customHeight="1">
-      <c r="A45" s="44"/>
-      <c r="B45" s="41"/>
+      <c r="A45" s="40"/>
+      <c r="B45" s="42"/>
       <c r="C45" s="16" t="s">
         <v>171</v>
       </c>
@@ -3056,7 +3056,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="31.15" customHeight="1">
-      <c r="A46" s="44"/>
+      <c r="A46" s="40"/>
       <c r="B46" s="13" t="s">
         <v>172</v>
       </c>
@@ -3079,7 +3079,7 @@
       <c r="J46" s="24"/>
     </row>
     <row r="47" spans="1:10" ht="37.9" customHeight="1">
-      <c r="A47" s="45"/>
+      <c r="A47" s="41"/>
       <c r="B47" s="13" t="s">
         <v>174</v>
       </c>
@@ -3138,12 +3138,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A25:A47"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B44:B45"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A24"/>
     <mergeCell ref="B5:B7"/>
@@ -3151,6 +3145,12 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B23"/>
+    <mergeCell ref="A25:A47"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B44:B45"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
